--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1952,28 +1952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>227.4098699130899</v>
+        <v>325.193597390091</v>
       </c>
       <c r="AB2" t="n">
-        <v>311.1522166303389</v>
+        <v>444.9442264781132</v>
       </c>
       <c r="AC2" t="n">
-        <v>281.4562857801104</v>
+        <v>402.4793739861853</v>
       </c>
       <c r="AD2" t="n">
-        <v>227409.86991309</v>
+        <v>325193.597390091</v>
       </c>
       <c r="AE2" t="n">
-        <v>311152.2166303389</v>
+        <v>444944.2264781132</v>
       </c>
       <c r="AF2" t="n">
         <v>8.161096741629825e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.21875</v>
       </c>
       <c r="AH2" t="n">
-        <v>281456.2857801103</v>
+        <v>402479.3739861853</v>
       </c>
     </row>
     <row r="3">
@@ -2058,28 +2058,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.0158442575587</v>
+        <v>267.2566946126434</v>
       </c>
       <c r="AB3" t="n">
-        <v>258.6198169035997</v>
+        <v>365.672400102252</v>
       </c>
       <c r="AC3" t="n">
-        <v>233.9375045535883</v>
+        <v>330.7731394609292</v>
       </c>
       <c r="AD3" t="n">
-        <v>189015.8442575587</v>
+        <v>267256.6946126434</v>
       </c>
       <c r="AE3" t="n">
-        <v>258619.8169035997</v>
+        <v>365672.400102252</v>
       </c>
       <c r="AF3" t="n">
         <v>9.743171842935362e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.11979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>233937.5045535883</v>
+        <v>330773.1394609292</v>
       </c>
     </row>
     <row r="4">
@@ -2164,28 +2164,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>176.1553057318346</v>
+        <v>254.3619906681351</v>
       </c>
       <c r="AB4" t="n">
-        <v>241.0234607257958</v>
+        <v>348.0292972910225</v>
       </c>
       <c r="AC4" t="n">
-        <v>218.0205199127474</v>
+        <v>314.8138696198578</v>
       </c>
       <c r="AD4" t="n">
-        <v>176155.3057318346</v>
+        <v>254361.9906681351</v>
       </c>
       <c r="AE4" t="n">
-        <v>241023.4607257958</v>
+        <v>348029.2972910226</v>
       </c>
       <c r="AF4" t="n">
         <v>1.030247305970166e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>218020.5199127474</v>
+        <v>314813.8696198578</v>
       </c>
     </row>
     <row r="5">
@@ -2270,28 +2270,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>175.8998352930182</v>
+        <v>254.1065202293187</v>
       </c>
       <c r="AB5" t="n">
-        <v>240.6739148008471</v>
+        <v>347.6797513660738</v>
       </c>
       <c r="AC5" t="n">
-        <v>217.7043341602848</v>
+        <v>314.4976838673952</v>
       </c>
       <c r="AD5" t="n">
-        <v>175899.8352930182</v>
+        <v>254106.5202293187</v>
       </c>
       <c r="AE5" t="n">
-        <v>240673.9148008471</v>
+        <v>347679.7513660738</v>
       </c>
       <c r="AF5" t="n">
         <v>1.030295521592301e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.234375</v>
       </c>
       <c r="AH5" t="n">
-        <v>217704.3341602848</v>
+        <v>314497.6838673952</v>
       </c>
     </row>
   </sheetData>
@@ -2567,28 +2567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>198.7296647502196</v>
+        <v>285.7531218747098</v>
       </c>
       <c r="AB2" t="n">
-        <v>271.9106946451667</v>
+        <v>390.9800278869914</v>
       </c>
       <c r="AC2" t="n">
-        <v>245.9599195773684</v>
+        <v>353.6654427693717</v>
       </c>
       <c r="AD2" t="n">
-        <v>198729.6647502196</v>
+        <v>285753.1218747098</v>
       </c>
       <c r="AE2" t="n">
-        <v>271910.6946451667</v>
+        <v>390980.0278869914</v>
       </c>
       <c r="AF2" t="n">
         <v>9.934956534393893e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.29166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>245959.9195773684</v>
+        <v>353665.4427693717</v>
       </c>
     </row>
     <row r="3">
@@ -2673,28 +2673,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.1190216654585</v>
+        <v>240.5292494475416</v>
       </c>
       <c r="AB3" t="n">
-        <v>223.1866417459259</v>
+        <v>329.102730495543</v>
       </c>
       <c r="AC3" t="n">
-        <v>201.8860219021779</v>
+        <v>297.6936277957294</v>
       </c>
       <c r="AD3" t="n">
-        <v>163119.0216654585</v>
+        <v>240529.2494475416</v>
       </c>
       <c r="AE3" t="n">
-        <v>223186.6417459259</v>
+        <v>329102.730495543</v>
       </c>
       <c r="AF3" t="n">
         <v>1.146938710426158e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.97395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>201886.0219021779</v>
+        <v>297693.6277957294</v>
       </c>
     </row>
     <row r="4">
@@ -2779,28 +2779,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>162.2448102039525</v>
+        <v>239.6550379860355</v>
       </c>
       <c r="AB4" t="n">
-        <v>221.9905070568062</v>
+        <v>327.9065958064233</v>
       </c>
       <c r="AC4" t="n">
-        <v>200.8040446290019</v>
+        <v>296.6116505225534</v>
       </c>
       <c r="AD4" t="n">
-        <v>162244.8102039525</v>
+        <v>239655.0379860355</v>
       </c>
       <c r="AE4" t="n">
-        <v>221990.5070568062</v>
+        <v>327906.5958064233</v>
       </c>
       <c r="AF4" t="n">
         <v>1.168450282193858e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.6875</v>
       </c>
       <c r="AH4" t="n">
-        <v>200804.0446290019</v>
+        <v>296611.6505225534</v>
       </c>
     </row>
   </sheetData>
@@ -3076,28 +3076,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.4184600951104</v>
+        <v>218.8395124654906</v>
       </c>
       <c r="AB2" t="n">
-        <v>209.9139054468095</v>
+        <v>299.4258754730537</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.8800169270426</v>
+        <v>270.8490901648494</v>
       </c>
       <c r="AD2" t="n">
-        <v>153418.4600951103</v>
+        <v>218839.5124654906</v>
       </c>
       <c r="AE2" t="n">
-        <v>209913.9054468095</v>
+        <v>299425.8754730537</v>
       </c>
       <c r="AF2" t="n">
         <v>1.662650029436364e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.42708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>189880.0169270426</v>
+        <v>270849.0901648494</v>
       </c>
     </row>
   </sheetData>
@@ -3373,28 +3373,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.4628882426926</v>
+        <v>233.2892838517418</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.4476704659058</v>
+        <v>319.1966901626352</v>
       </c>
       <c r="AC2" t="n">
-        <v>194.8856471794061</v>
+        <v>288.7330060489763</v>
       </c>
       <c r="AD2" t="n">
-        <v>157462.8882426926</v>
+        <v>233289.2838517418</v>
       </c>
       <c r="AE2" t="n">
-        <v>215447.6704659058</v>
+        <v>319196.6901626352</v>
       </c>
       <c r="AF2" t="n">
         <v>1.412289234394138e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>194885.6471794061</v>
+        <v>288733.0060489763</v>
       </c>
     </row>
     <row r="3">
@@ -3479,28 +3479,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>156.7341705483637</v>
+        <v>223.0448416400106</v>
       </c>
       <c r="AB3" t="n">
-        <v>214.4506067677698</v>
+        <v>305.1797923756583</v>
       </c>
       <c r="AC3" t="n">
-        <v>193.9837418412322</v>
+        <v>276.0538613139444</v>
       </c>
       <c r="AD3" t="n">
-        <v>156734.1705483637</v>
+        <v>223044.8416400106</v>
       </c>
       <c r="AE3" t="n">
-        <v>214450.6067677698</v>
+        <v>305179.7923756583</v>
       </c>
       <c r="AF3" t="n">
         <v>1.441232658429747e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.40104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>193983.7418412322</v>
+        <v>276053.8613139444</v>
       </c>
     </row>
   </sheetData>
@@ -3776,28 +3776,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.0206793928842</v>
+        <v>224.9964595035198</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.6331561074065</v>
+        <v>307.8500820358138</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.9123777000306</v>
+        <v>278.4693022767106</v>
       </c>
       <c r="AD2" t="n">
-        <v>151020.6793928842</v>
+        <v>224996.4595035198</v>
       </c>
       <c r="AE2" t="n">
-        <v>206633.1561074065</v>
+        <v>307850.0820358138</v>
       </c>
       <c r="AF2" t="n">
         <v>1.868346229120895e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>186912.3777000306</v>
+        <v>278469.3022767106</v>
       </c>
     </row>
   </sheetData>
@@ -4073,28 +4073,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>201.1067804263659</v>
+        <v>298.1277365770744</v>
       </c>
       <c r="AB2" t="n">
-        <v>275.1631691842106</v>
+        <v>407.9115216522375</v>
       </c>
       <c r="AC2" t="n">
-        <v>248.9019825112837</v>
+        <v>368.9810185331635</v>
       </c>
       <c r="AD2" t="n">
-        <v>201106.7804263659</v>
+        <v>298127.7365770744</v>
       </c>
       <c r="AE2" t="n">
-        <v>275163.1691842106</v>
+        <v>407911.5216522375</v>
       </c>
       <c r="AF2" t="n">
         <v>9.389277119402268e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.83854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>248901.9825112837</v>
+        <v>368981.0185331635</v>
       </c>
     </row>
     <row r="3">
@@ -4179,28 +4179,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>174.5889551427904</v>
+        <v>252.1588995069183</v>
       </c>
       <c r="AB3" t="n">
-        <v>238.8803107473557</v>
+        <v>345.0149307707247</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.081909160319</v>
+        <v>312.0871900095662</v>
       </c>
       <c r="AD3" t="n">
-        <v>174588.9551427905</v>
+        <v>252158.8995069183</v>
       </c>
       <c r="AE3" t="n">
-        <v>238880.3107473557</v>
+        <v>345014.9307707247</v>
       </c>
       <c r="AF3" t="n">
         <v>1.096560072508384e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.28645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>216081.909160319</v>
+        <v>312087.1900095662</v>
       </c>
     </row>
     <row r="4">
@@ -4285,28 +4285,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>163.2670430912125</v>
+        <v>240.9043072630447</v>
       </c>
       <c r="AB4" t="n">
-        <v>223.3891711908867</v>
+        <v>329.6159011450972</v>
       </c>
       <c r="AC4" t="n">
-        <v>202.0692222211636</v>
+        <v>298.1578221587299</v>
       </c>
       <c r="AD4" t="n">
-        <v>163267.0430912125</v>
+        <v>240904.3072630447</v>
       </c>
       <c r="AE4" t="n">
-        <v>223389.1711908867</v>
+        <v>329615.9011450972</v>
       </c>
       <c r="AF4" t="n">
         <v>1.127404404176201e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.86979166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>202069.2222211636</v>
+        <v>298157.8221587299</v>
       </c>
     </row>
   </sheetData>
@@ -4582,28 +4582,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.9766549881955</v>
+        <v>223.2701291411705</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.5188729097773</v>
+        <v>305.4880406737282</v>
       </c>
       <c r="AC2" t="n">
-        <v>196.7591769689861</v>
+        <v>276.3326908270759</v>
       </c>
       <c r="AD2" t="n">
-        <v>158976.6549881955</v>
+        <v>223270.1291411704</v>
       </c>
       <c r="AE2" t="n">
-        <v>217518.8729097773</v>
+        <v>305488.0406737282</v>
       </c>
       <c r="AF2" t="n">
         <v>1.995772959401162e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.05208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>196759.1769689861</v>
+        <v>276332.6908270759</v>
       </c>
     </row>
   </sheetData>
@@ -4879,28 +4879,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>182.8996330751094</v>
+        <v>259.5398635361516</v>
       </c>
       <c r="AB2" t="n">
-        <v>250.2513469355828</v>
+        <v>355.113891380836</v>
       </c>
       <c r="AC2" t="n">
-        <v>226.3677096140949</v>
+        <v>321.2223199929251</v>
       </c>
       <c r="AD2" t="n">
-        <v>182899.6330751094</v>
+        <v>259539.8635361516</v>
       </c>
       <c r="AE2" t="n">
-        <v>250251.3469355828</v>
+        <v>355113.891380836</v>
       </c>
       <c r="AF2" t="n">
         <v>1.165026316147683e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.04166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>226367.7096140949</v>
+        <v>321222.319992925</v>
       </c>
     </row>
     <row r="3">
@@ -4985,28 +4985,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>159.4191588443298</v>
+        <v>226.4709455217758</v>
       </c>
       <c r="AB3" t="n">
-        <v>218.1243262076324</v>
+        <v>309.8675388557228</v>
       </c>
       <c r="AC3" t="n">
-        <v>197.306846653853</v>
+        <v>280.2942158492466</v>
       </c>
       <c r="AD3" t="n">
-        <v>159419.1588443298</v>
+        <v>226470.9455217758</v>
       </c>
       <c r="AE3" t="n">
-        <v>218124.3262076323</v>
+        <v>309867.5388557228</v>
       </c>
       <c r="AF3" t="n">
         <v>1.292930387060013e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>197306.846653853</v>
+        <v>280294.2158492466</v>
       </c>
     </row>
   </sheetData>
@@ -5282,28 +5282,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.1132131775053</v>
+        <v>273.9388616595963</v>
       </c>
       <c r="AB2" t="n">
-        <v>256.0165531217127</v>
+        <v>374.8152358522973</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.5826926133401</v>
+        <v>339.0433957990408</v>
       </c>
       <c r="AD2" t="n">
-        <v>187113.2131775053</v>
+        <v>273938.8616595963</v>
       </c>
       <c r="AE2" t="n">
-        <v>256016.5531217127</v>
+        <v>374815.2358522973</v>
       </c>
       <c r="AF2" t="n">
         <v>1.04108723218109e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.92708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>231582.6926133401</v>
+        <v>339043.3957990408</v>
       </c>
     </row>
     <row r="3">
@@ -5388,28 +5388,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.8525099185997</v>
+        <v>239.0270679672574</v>
       </c>
       <c r="AB3" t="n">
-        <v>221.4537444993196</v>
+        <v>327.0473795226495</v>
       </c>
       <c r="AC3" t="n">
-        <v>200.3185099366506</v>
+        <v>295.834436634985</v>
       </c>
       <c r="AD3" t="n">
-        <v>161852.5099185997</v>
+        <v>239027.0679672573</v>
       </c>
       <c r="AE3" t="n">
-        <v>221453.7444993196</v>
+        <v>327047.3795226495</v>
       </c>
       <c r="AF3" t="n">
         <v>1.191639547690208e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.79166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>200318.5099366506</v>
+        <v>295834.436634985</v>
       </c>
     </row>
     <row r="4">
@@ -5494,28 +5494,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>161.4635812466786</v>
+        <v>238.6381392953363</v>
       </c>
       <c r="AB4" t="n">
-        <v>220.9215951320755</v>
+        <v>326.5152301554053</v>
       </c>
       <c r="AC4" t="n">
-        <v>199.8371481581397</v>
+        <v>295.3530748564742</v>
       </c>
       <c r="AD4" t="n">
-        <v>161463.5812466786</v>
+        <v>238638.1392953363</v>
       </c>
       <c r="AE4" t="n">
-        <v>220921.5951320755</v>
+        <v>326515.2301554053</v>
       </c>
       <c r="AF4" t="n">
         <v>1.202286438500613e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.66145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>199837.1481581398</v>
+        <v>295353.0748564742</v>
       </c>
     </row>
   </sheetData>
@@ -5791,28 +5791,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>215.3797654387063</v>
+        <v>312.9739497876401</v>
       </c>
       <c r="AB2" t="n">
-        <v>294.6920969577432</v>
+        <v>428.2247655356349</v>
       </c>
       <c r="AC2" t="n">
-        <v>266.5670968271389</v>
+        <v>387.3555949301464</v>
       </c>
       <c r="AD2" t="n">
-        <v>215379.7654387063</v>
+        <v>312973.9497876401</v>
       </c>
       <c r="AE2" t="n">
-        <v>294692.0969577432</v>
+        <v>428224.7655356349</v>
       </c>
       <c r="AF2" t="n">
         <v>8.518820549365444e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.80208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>266567.0968271389</v>
+        <v>387355.5949301464</v>
       </c>
     </row>
     <row r="3">
@@ -5897,28 +5897,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>177.4739255852235</v>
+        <v>255.576605399392</v>
       </c>
       <c r="AB3" t="n">
-        <v>242.8276545826038</v>
+        <v>349.6911867513474</v>
       </c>
       <c r="AC3" t="n">
-        <v>219.6525240400642</v>
+        <v>316.3171506825662</v>
       </c>
       <c r="AD3" t="n">
-        <v>177473.9255852235</v>
+        <v>255576.605399392</v>
       </c>
       <c r="AE3" t="n">
-        <v>242827.6545826038</v>
+        <v>349691.1867513474</v>
       </c>
       <c r="AF3" t="n">
         <v>1.015015213400785e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.78125</v>
       </c>
       <c r="AH3" t="n">
-        <v>219652.5240400642</v>
+        <v>316317.1506825662</v>
       </c>
     </row>
     <row r="4">
@@ -6003,28 +6003,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>174.9673549835497</v>
+        <v>243.2740454320235</v>
       </c>
       <c r="AB4" t="n">
-        <v>239.3980541033049</v>
+        <v>332.8582814533618</v>
       </c>
       <c r="AC4" t="n">
-        <v>216.550239817034</v>
+        <v>301.0907542410841</v>
       </c>
       <c r="AD4" t="n">
-        <v>174967.3549835497</v>
+        <v>243274.0454320234</v>
       </c>
       <c r="AE4" t="n">
-        <v>239398.0541033049</v>
+        <v>332858.2814533619</v>
       </c>
       <c r="AF4" t="n">
         <v>1.06401115278338e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.05208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>216550.239817034</v>
+        <v>301090.7542410842</v>
       </c>
     </row>
     <row r="5">
@@ -6109,28 +6109,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>174.9807336430187</v>
+        <v>243.2874240914925</v>
       </c>
       <c r="AB5" t="n">
-        <v>239.4163593754153</v>
+        <v>332.8765867254722</v>
       </c>
       <c r="AC5" t="n">
-        <v>216.5667980596658</v>
+        <v>301.1073124837159</v>
       </c>
       <c r="AD5" t="n">
-        <v>174980.7336430187</v>
+        <v>243287.4240914925</v>
       </c>
       <c r="AE5" t="n">
-        <v>239416.3593754153</v>
+        <v>332876.5867254722</v>
       </c>
       <c r="AF5" t="n">
         <v>1.064164976528774e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.05208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>216566.7980596658</v>
+        <v>301107.3124837159</v>
       </c>
     </row>
   </sheetData>
@@ -6406,28 +6406,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>169.1470519343579</v>
+        <v>235.7520914698759</v>
       </c>
       <c r="AB2" t="n">
-        <v>231.4344586977565</v>
+        <v>322.5664121971683</v>
       </c>
       <c r="AC2" t="n">
-        <v>209.3466787800122</v>
+        <v>291.7811265419692</v>
       </c>
       <c r="AD2" t="n">
-        <v>169147.0519343579</v>
+        <v>235752.0914698759</v>
       </c>
       <c r="AE2" t="n">
-        <v>231434.4586977565</v>
+        <v>322566.4121971683</v>
       </c>
       <c r="AF2" t="n">
         <v>1.320932106502065e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.13020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>209346.6787800122</v>
+        <v>291781.1265419692</v>
       </c>
     </row>
     <row r="3">
@@ -6512,28 +6512,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>157.5699514715596</v>
+        <v>224.1408255882967</v>
       </c>
       <c r="AB3" t="n">
-        <v>215.5941590989379</v>
+        <v>306.679365965102</v>
       </c>
       <c r="AC3" t="n">
-        <v>195.0181551428997</v>
+        <v>277.4103177046767</v>
       </c>
       <c r="AD3" t="n">
-        <v>157569.9514715596</v>
+        <v>224140.8255882967</v>
       </c>
       <c r="AE3" t="n">
-        <v>215594.1590989379</v>
+        <v>306679.365965102</v>
       </c>
       <c r="AF3" t="n">
         <v>1.391624004053416e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.34895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>195018.1551428997</v>
+        <v>277410.3177046768</v>
       </c>
     </row>
   </sheetData>
@@ -6809,28 +6809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.3986781660817</v>
+        <v>220.137891938904</v>
       </c>
       <c r="AB2" t="n">
-        <v>211.255083055681</v>
+        <v>301.2023755490366</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.0931944272784</v>
+        <v>272.4560435669147</v>
       </c>
       <c r="AD2" t="n">
-        <v>154398.6781660817</v>
+        <v>220137.891938904</v>
       </c>
       <c r="AE2" t="n">
-        <v>211255.0830556811</v>
+        <v>301202.3755490366</v>
       </c>
       <c r="AF2" t="n">
         <v>1.591522085804572e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.27083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>191093.1944272784</v>
+        <v>272456.0435669147</v>
       </c>
     </row>
     <row r="3">
@@ -6915,28 +6915,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.506923166072</v>
+        <v>220.2461369388944</v>
       </c>
       <c r="AB3" t="n">
-        <v>211.4031886401001</v>
+        <v>301.3504811334556</v>
       </c>
       <c r="AC3" t="n">
-        <v>191.2271650225881</v>
+        <v>272.5900141622243</v>
       </c>
       <c r="AD3" t="n">
-        <v>154506.923166072</v>
+        <v>220246.1369388943</v>
       </c>
       <c r="AE3" t="n">
-        <v>211403.1886401001</v>
+        <v>301350.4811334556</v>
       </c>
       <c r="AF3" t="n">
         <v>1.590466728724991e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.27083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>191227.1650225881</v>
+        <v>272590.0141622243</v>
       </c>
     </row>
   </sheetData>
@@ -11569,28 +11569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.2110575330732</v>
+        <v>217.285509648934</v>
       </c>
       <c r="AB2" t="n">
-        <v>208.2618839945894</v>
+        <v>297.2996202616761</v>
       </c>
       <c r="AC2" t="n">
-        <v>188.3856620835952</v>
+        <v>268.9257617666272</v>
       </c>
       <c r="AD2" t="n">
-        <v>152211.0575330732</v>
+        <v>217285.509648934</v>
       </c>
       <c r="AE2" t="n">
-        <v>208261.8839945894</v>
+        <v>297299.6202616761</v>
       </c>
       <c r="AF2" t="n">
         <v>1.76338844855964e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>188385.6620835951</v>
+        <v>268925.7617666272</v>
       </c>
     </row>
   </sheetData>
@@ -11866,28 +11866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.5155608476259</v>
+        <v>230.4572844651365</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.519739447727</v>
+        <v>315.3218236628886</v>
       </c>
       <c r="AC2" t="n">
-        <v>194.9508379987517</v>
+        <v>285.227951369555</v>
       </c>
       <c r="AD2" t="n">
-        <v>157515.560847626</v>
+        <v>230457.2844651365</v>
       </c>
       <c r="AE2" t="n">
-        <v>215519.739447727</v>
+        <v>315321.8236628885</v>
       </c>
       <c r="AF2" t="n">
         <v>2.137685689674709e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.78125</v>
       </c>
       <c r="AH2" t="n">
-        <v>194950.8379987517</v>
+        <v>285227.951369555</v>
       </c>
     </row>
   </sheetData>
@@ -12163,28 +12163,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>184.993647268027</v>
+        <v>261.8898089980623</v>
       </c>
       <c r="AB2" t="n">
-        <v>253.1164695357175</v>
+        <v>358.3291904340993</v>
       </c>
       <c r="AC2" t="n">
-        <v>228.9593889344985</v>
+        <v>324.1307554172455</v>
       </c>
       <c r="AD2" t="n">
-        <v>184993.647268027</v>
+        <v>261889.8089980623</v>
       </c>
       <c r="AE2" t="n">
-        <v>253116.4695357175</v>
+        <v>358329.1904340993</v>
       </c>
       <c r="AF2" t="n">
         <v>1.102404415545261e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.43229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>228959.3889344985</v>
+        <v>324130.7554172455</v>
       </c>
     </row>
     <row r="3">
@@ -12269,28 +12269,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>160.5449807269686</v>
+        <v>237.4742968459243</v>
       </c>
       <c r="AB3" t="n">
-        <v>219.6647253752141</v>
+        <v>324.9228095710155</v>
       </c>
       <c r="AC3" t="n">
-        <v>198.7002322868451</v>
+        <v>293.9126326576816</v>
       </c>
       <c r="AD3" t="n">
-        <v>160544.9807269686</v>
+        <v>237474.2968459243</v>
       </c>
       <c r="AE3" t="n">
-        <v>219664.7253752141</v>
+        <v>324922.8095710155</v>
       </c>
       <c r="AF3" t="n">
         <v>1.240126672708839e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>198700.232286845</v>
+        <v>293912.6326576817</v>
       </c>
     </row>
     <row r="4">
@@ -12375,28 +12375,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>160.6288949328628</v>
+        <v>237.5582110518185</v>
       </c>
       <c r="AB4" t="n">
-        <v>219.779540493752</v>
+        <v>325.0376246895534</v>
       </c>
       <c r="AC4" t="n">
-        <v>198.8040896116138</v>
+        <v>294.0164899824504</v>
       </c>
       <c r="AD4" t="n">
-        <v>160628.8949328628</v>
+        <v>237558.2110518185</v>
       </c>
       <c r="AE4" t="n">
-        <v>219779.540493752</v>
+        <v>325037.6246895533</v>
       </c>
       <c r="AF4" t="n">
         <v>1.23810840727969e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.63541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>198804.0896116138</v>
+        <v>294016.4899824504</v>
       </c>
     </row>
   </sheetData>
@@ -12672,28 +12672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>212.8263324111406</v>
+        <v>300.385971740078</v>
       </c>
       <c r="AB2" t="n">
-        <v>291.1983772399147</v>
+        <v>411.0013386285632</v>
       </c>
       <c r="AC2" t="n">
-        <v>263.4068128157124</v>
+        <v>371.7759477138541</v>
       </c>
       <c r="AD2" t="n">
-        <v>212826.3324111406</v>
+        <v>300385.9717400781</v>
       </c>
       <c r="AE2" t="n">
-        <v>291198.3772399147</v>
+        <v>411001.3386285632</v>
       </c>
       <c r="AF2" t="n">
         <v>8.990138811409341e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.22916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>263406.8128157124</v>
+        <v>371775.9477138541</v>
       </c>
     </row>
     <row r="3">
@@ -12778,28 +12778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>176.2396996588995</v>
+        <v>254.1303300025778</v>
       </c>
       <c r="AB3" t="n">
-        <v>241.1389322200032</v>
+        <v>347.7123289482599</v>
       </c>
       <c r="AC3" t="n">
-        <v>218.1249709696129</v>
+        <v>314.5271522908605</v>
       </c>
       <c r="AD3" t="n">
-        <v>176239.6996588995</v>
+        <v>254130.3300025778</v>
       </c>
       <c r="AE3" t="n">
-        <v>241138.9322200032</v>
+        <v>347712.3289482599</v>
       </c>
       <c r="AF3" t="n">
         <v>1.04785907138936e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.625</v>
       </c>
       <c r="AH3" t="n">
-        <v>218124.9709696129</v>
+        <v>314527.1522908605</v>
       </c>
     </row>
     <row r="4">
@@ -12884,28 +12884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>163.9705505186955</v>
+        <v>241.827015443593</v>
       </c>
       <c r="AB4" t="n">
-        <v>224.3517410897258</v>
+        <v>330.8783911847347</v>
       </c>
       <c r="AC4" t="n">
-        <v>202.9399257998331</v>
+        <v>299.2998219209007</v>
       </c>
       <c r="AD4" t="n">
-        <v>163970.5505186955</v>
+        <v>241827.015443593</v>
       </c>
       <c r="AE4" t="n">
-        <v>224351.7410897258</v>
+        <v>330878.3911847346</v>
       </c>
       <c r="AF4" t="n">
         <v>1.100211777833154e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.89583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>202939.9257998331</v>
+        <v>299299.8219209007</v>
       </c>
     </row>
   </sheetData>
@@ -13181,28 +13181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.2627220201676</v>
+        <v>255.5297462398009</v>
       </c>
       <c r="AB2" t="n">
-        <v>238.4339441965937</v>
+        <v>349.6270719819146</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.6781432066823</v>
+        <v>316.2591549367425</v>
       </c>
       <c r="AD2" t="n">
-        <v>174262.7220201676</v>
+        <v>255529.7462398009</v>
       </c>
       <c r="AE2" t="n">
-        <v>238433.9441965937</v>
+        <v>349627.0719819146</v>
       </c>
       <c r="AF2" t="n">
         <v>2.253411015257985e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.63020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>215678.1432066823</v>
+        <v>316259.1549367425</v>
       </c>
     </row>
   </sheetData>
@@ -13478,28 +13478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.7560796877452</v>
+        <v>221.7905149036416</v>
       </c>
       <c r="AB2" t="n">
-        <v>213.1123397019489</v>
+        <v>303.463567197969</v>
       </c>
       <c r="AC2" t="n">
-        <v>192.7731971059032</v>
+        <v>274.5014302584761</v>
       </c>
       <c r="AD2" t="n">
-        <v>155756.0796877452</v>
+        <v>221790.5149036416</v>
       </c>
       <c r="AE2" t="n">
-        <v>213112.3397019489</v>
+        <v>303463.5671979691</v>
       </c>
       <c r="AF2" t="n">
         <v>1.505159600489398e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.40104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>192773.1971059032</v>
+        <v>274501.4302584761</v>
       </c>
     </row>
     <row r="3">
@@ -13584,28 +13584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.553204573582</v>
+        <v>221.5876397894784</v>
       </c>
       <c r="AB3" t="n">
-        <v>212.8347570205325</v>
+        <v>303.1859845165527</v>
       </c>
       <c r="AC3" t="n">
-        <v>192.5221065260114</v>
+        <v>274.2503396785843</v>
       </c>
       <c r="AD3" t="n">
-        <v>155553.204573582</v>
+        <v>221587.6397894784</v>
       </c>
       <c r="AE3" t="n">
-        <v>212834.7570205326</v>
+        <v>303185.9845165527</v>
       </c>
       <c r="AF3" t="n">
         <v>1.516288106885307e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>192522.1065260114</v>
+        <v>274250.3396785843</v>
       </c>
     </row>
   </sheetData>
@@ -13881,28 +13881,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.1491720917348</v>
+        <v>247.5887556847112</v>
       </c>
       <c r="AB2" t="n">
-        <v>234.1738478243856</v>
+        <v>338.7618583726684</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.8246244531535</v>
+        <v>306.4309020649362</v>
       </c>
       <c r="AD2" t="n">
-        <v>171149.1720917348</v>
+        <v>247588.7556847112</v>
       </c>
       <c r="AE2" t="n">
-        <v>234173.8478243856</v>
+        <v>338761.8583726684</v>
       </c>
       <c r="AF2" t="n">
         <v>1.240366482226759e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>211824.6244531535</v>
+        <v>306430.9020649362</v>
       </c>
     </row>
     <row r="3">
@@ -13987,28 +13987,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>158.4312637038412</v>
+        <v>225.2485795399912</v>
       </c>
       <c r="AB3" t="n">
-        <v>216.7726444935589</v>
+        <v>308.1950437924648</v>
       </c>
       <c r="AC3" t="n">
-        <v>196.084167545473</v>
+        <v>278.7813413674638</v>
       </c>
       <c r="AD3" t="n">
-        <v>158431.2637038412</v>
+        <v>225248.5795399912</v>
       </c>
       <c r="AE3" t="n">
-        <v>216772.6444935589</v>
+        <v>308195.0437924648</v>
       </c>
       <c r="AF3" t="n">
         <v>1.340592057688899e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.375</v>
       </c>
       <c r="AH3" t="n">
-        <v>196084.167545473</v>
+        <v>278781.3413674638</v>
       </c>
     </row>
   </sheetData>
